--- a/artfynd/A 32487-2021 artfynd.xlsx
+++ b/artfynd/A 32487-2021 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130669692</v>
       </c>
       <c r="B2" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 32487-2021 artfynd.xlsx
+++ b/artfynd/A 32487-2021 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,6 +793,502 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>131106007</v>
+      </c>
+      <c r="B3" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Svartåsen, Mpd</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>612036</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6945843</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2025_1183</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>08:56</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>08:56</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Måns Svensson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>131106010</v>
+      </c>
+      <c r="B4" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Svartåsen, Mpd</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>612376</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6945396</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>2025_1180</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>08:22</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>08:22</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Jennifer Lehikoinen, Måns Svensson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>131106008</v>
+      </c>
+      <c r="B5" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Svartåsen, Mpd</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>612048</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6945825</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>2025_1182</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>08:51</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>08:51</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Jennifer Lehikoinen, Måns Svensson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>131106009</v>
+      </c>
+      <c r="B6" t="n">
+        <v>79862</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>cm²</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Svartåsen, Mpd</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>612057</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6945797</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>2025_1181</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>08:47</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>08:47</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>tallstubbe</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Måns Svensson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 32487-2021 artfynd.xlsx
+++ b/artfynd/A 32487-2021 artfynd.xlsx
@@ -920,7 +920,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131106010</v>
+        <v>131106008</v>
       </c>
       <c r="B4" t="n">
         <v>79243</v>
@@ -948,17 +948,26 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svartåsen, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>612376</v>
+        <v>612048</v>
       </c>
       <c r="R4" t="n">
-        <v>6945396</v>
+        <v>6945825</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -985,7 +994,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2025_1180</t>
+          <t>2025_1182</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -995,7 +1004,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1005,7 +1014,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1036,7 +1045,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131106008</v>
+        <v>131106010</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1064,26 +1073,17 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Svartåsen, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>612048</v>
+        <v>612376</v>
       </c>
       <c r="R5" t="n">
-        <v>6945825</v>
+        <v>6945396</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2025_1182</t>
+          <t>2025_1180</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 32487-2021 artfynd.xlsx
+++ b/artfynd/A 32487-2021 artfynd.xlsx
@@ -920,7 +920,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131106008</v>
+        <v>131106010</v>
       </c>
       <c r="B4" t="n">
         <v>79243</v>
@@ -948,26 +948,17 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svartåsen, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>612048</v>
+        <v>612376</v>
       </c>
       <c r="R4" t="n">
-        <v>6945825</v>
+        <v>6945396</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -994,7 +985,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2025_1182</t>
+          <t>2025_1180</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1004,7 +995,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1014,7 +1005,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1045,7 +1036,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131106010</v>
+        <v>131106008</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1073,17 +1064,26 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Svartåsen, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>612376</v>
+        <v>612048</v>
       </c>
       <c r="R5" t="n">
-        <v>6945396</v>
+        <v>6945825</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2025_1180</t>
+          <t>2025_1182</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 32487-2021 artfynd.xlsx
+++ b/artfynd/A 32487-2021 artfynd.xlsx
@@ -798,7 +798,7 @@
         <v>131106007</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131106010</v>
+        <v>131106008</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -948,17 +948,26 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svartåsen, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>612376</v>
+        <v>612048</v>
       </c>
       <c r="R4" t="n">
-        <v>6945396</v>
+        <v>6945825</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -985,7 +994,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2025_1180</t>
+          <t>2025_1182</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -995,7 +1004,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1005,7 +1014,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1036,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131106008</v>
+        <v>131106010</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1064,26 +1073,17 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Svartåsen, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>612048</v>
+        <v>612376</v>
       </c>
       <c r="R5" t="n">
-        <v>6945825</v>
+        <v>6945396</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2025_1182</t>
+          <t>2025_1180</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1164,7 +1164,7 @@
         <v>131106009</v>
       </c>
       <c r="B6" t="n">
-        <v>79862</v>
+        <v>79863</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/artfynd/A 32487-2021 artfynd.xlsx
+++ b/artfynd/A 32487-2021 artfynd.xlsx
@@ -920,7 +920,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131106008</v>
+        <v>131106010</v>
       </c>
       <c r="B4" t="n">
         <v>79244</v>
@@ -948,26 +948,17 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svartåsen, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>612048</v>
+        <v>612376</v>
       </c>
       <c r="R4" t="n">
-        <v>6945825</v>
+        <v>6945396</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -994,7 +985,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2025_1182</t>
+          <t>2025_1180</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1004,7 +995,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1014,7 +1005,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1045,7 +1036,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131106010</v>
+        <v>131106008</v>
       </c>
       <c r="B5" t="n">
         <v>79244</v>
@@ -1073,17 +1064,26 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Svartåsen, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>612376</v>
+        <v>612048</v>
       </c>
       <c r="R5" t="n">
-        <v>6945396</v>
+        <v>6945825</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2025_1180</t>
+          <t>2025_1182</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 32487-2021 artfynd.xlsx
+++ b/artfynd/A 32487-2021 artfynd.xlsx
@@ -798,7 +798,7 @@
         <v>131106007</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>131106010</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>131106008</v>
       </c>
       <c r="B5" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>131106009</v>
       </c>
       <c r="B6" t="n">
-        <v>79863</v>
+        <v>79864</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/artfynd/A 32487-2021 artfynd.xlsx
+++ b/artfynd/A 32487-2021 artfynd.xlsx
@@ -920,7 +920,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131106010</v>
+        <v>131106008</v>
       </c>
       <c r="B4" t="n">
         <v>79245</v>
@@ -948,17 +948,26 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svartåsen, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>612376</v>
+        <v>612048</v>
       </c>
       <c r="R4" t="n">
-        <v>6945396</v>
+        <v>6945825</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -985,7 +994,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2025_1180</t>
+          <t>2025_1182</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -995,7 +1004,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1005,7 +1014,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1036,7 +1045,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131106008</v>
+        <v>131106010</v>
       </c>
       <c r="B5" t="n">
         <v>79245</v>
@@ -1064,26 +1073,17 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Svartåsen, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>612048</v>
+        <v>612376</v>
       </c>
       <c r="R5" t="n">
-        <v>6945825</v>
+        <v>6945396</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2025_1182</t>
+          <t>2025_1180</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AD5" t="b">
